--- a/Server/public/sessions/230425/attendees.xlsx
+++ b/Server/public/sessions/230425/attendees.xlsx
@@ -458,7 +458,7 @@
         <v>21BCS081</v>
       </c>
       <c r="C4" t="str">
-        <v>A</v>
+        <v>P</v>
       </c>
     </row>
     <row r="5">
